--- a/Data/USWaterBalanceSheet.xlsx
+++ b/Data/USWaterBalanceSheet.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="4" r:id="rId1"/>
     <sheet name="2000" sheetId="1" r:id="rId2"/>
+    <sheet name="2005" sheetId="5" r:id="rId3"/>
+    <sheet name="2010" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -92,8 +94,76 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>John Fay</author>
+  </authors>
+  <commentList>
+    <comment ref="J10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Fay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+After use, water re-enters circulation.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>John Fay</author>
+  </authors>
+  <commentList>
+    <comment ref="J10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Fay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+After use, water re-enters circulation.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="33">
   <si>
     <t>US Water Balance Sheet</t>
   </si>
@@ -408,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,7 +550,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,7 +833,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,7 +2303,7 @@
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2647,4 +2716,1894 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="16.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:M7" si="0">L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="4">
+        <f>SUM(L4:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="3">
+        <f>SUM(B9:J9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:M12" si="1">SUM(B10:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUM(B9:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:K12" si="2">SUM(C9:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="24">
+        <f>SUM(B14:B15)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="24">
+        <f t="shared" ref="C16:K16" si="3">SUM(C14:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11">
+        <f>B7+B12+B16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" ref="C17:K17" si="4">C7+C12+C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <f>L7+L12+L16</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <f>SUM(M14:M16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" ref="B24:K24" si="5">SUM(B21:B23)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="4">
+        <f>SUM(M21:M23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" ref="B29:K29" si="6">SUM(B26:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="4">
+        <f>SUM(M26:M28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="4">
+        <f t="shared" ref="L33:M33" si="7">SUM(L30:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="11">
+        <f>B24+B29+B33</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" ref="C34:K34" si="8">C24+C29+C33</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f>L24+L29+L33</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f>M24+M29+M33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="11">
+        <f>B34-B17</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" ref="C36:M36" si="9">C34-C17</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="16.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:M7" si="0">L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="4">
+        <f>SUM(L4:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="3">
+        <f>SUM(B9:J9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:M12" si="1">SUM(B10:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUM(B9:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:K12" si="2">SUM(C9:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="24">
+        <f>SUM(B14:B15)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="24">
+        <f t="shared" ref="C16:K16" si="3">SUM(C14:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11">
+        <f>B7+B12+B16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" ref="C17:K17" si="4">C7+C12+C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <f>L7+L12+L16</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <f>SUM(M14:M16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" ref="B24:K24" si="5">SUM(B21:B23)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="4">
+        <f>SUM(M21:M23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" ref="B29:K29" si="6">SUM(B26:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="4">
+        <f>SUM(M26:M28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="4">
+        <f t="shared" ref="L33:M33" si="7">SUM(L30:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="11">
+        <f>B24+B29+B33</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" ref="C34:K34" si="8">C24+C29+C33</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f>L24+L29+L33</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f>M24+M29+M33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="11">
+        <f>B34-B17</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" ref="C36:M36" si="9">C34-C17</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>